--- a/day3/demo/datasets/Day 3 Data Dictionary.xlsx
+++ b/day3/demo/datasets/Day 3 Data Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2023/day2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2023/day3/demo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220882F2-E700-0A45-8F55-FC7AA405112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EC08FD-76BF-8B42-93D8-5E7160AD7C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="760" windowWidth="29780" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="248">
   <si>
     <t>Text</t>
   </si>
@@ -438,34 +438,6 @@
     <t>Data Dictionary - Tables/Datasets</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">This data dictionary is intended to document the dataset(s) accessible at </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>XXXX</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">If you have any questions, please reach out to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>XXXX</t>
-    </r>
-  </si>
-  <si>
     <t>Field</t>
   </si>
   <si>
@@ -475,20 +447,6 @@
     <t>Update frequency</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The data dictionary was last updated on </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>DATE</t>
-    </r>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -526,13 +484,310 @@
   </si>
   <si>
     <t>Person responsible for changes</t>
+  </si>
+  <si>
+    <t>This data dictionary is intended to document the dataset(s) accessible at https://github.com/seaneff/data-science-basics-2023/tree/main/day3/demo/datasets</t>
+  </si>
+  <si>
+    <t>The data dictionary was last updated on June 14, 2023</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>one-time (not updated)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>breeds</t>
+  </si>
+  <si>
+    <t>A dataset with one row per WHO member state, with some information on select health workforce statistics and progress towards sustainable development goals</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>one row per WHO member state</t>
+  </si>
+  <si>
+    <t>A dataset longitudinal information on the proportion of local breeds classified as being at risk, for select countries</t>
+  </si>
+  <si>
+    <t>one row per country per year (for some countries)</t>
+  </si>
+  <si>
+    <t>Developed for use as a teaching tool, not for research or operational use; data come from a variety of sources</t>
+  </si>
+  <si>
+    <t>Developed for use as a teaching tool, not for research or operational use; data come directly from SDG site with minor formatting edits</t>
+  </si>
+  <si>
+    <t>sanctions</t>
+  </si>
+  <si>
+    <t>one row per sanctioned entity</t>
+  </si>
+  <si>
+    <t>A dataset with information on select sanctions in North Korea, based on publicly available data from OFAC (https://sanctionssearch.ofac.treas.gov/)</t>
+  </si>
+  <si>
+    <t>Developed for use as a teaching tool, not for research or operational use; data come directly from OFAC site with minor formatting edits</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>iso_3166</t>
+  </si>
+  <si>
+    <t>who_member_state</t>
+  </si>
+  <si>
+    <t>who_region</t>
+  </si>
+  <si>
+    <t>safe_after_dark_overall</t>
+  </si>
+  <si>
+    <t>safe_after_dark_male</t>
+  </si>
+  <si>
+    <t>safe_after_dark_female</t>
+  </si>
+  <si>
+    <t>safe_after_dark_reference</t>
+  </si>
+  <si>
+    <t>robbery_overall</t>
+  </si>
+  <si>
+    <t>robbery_male</t>
+  </si>
+  <si>
+    <t>robbery_female</t>
+  </si>
+  <si>
+    <t>robbery_reference</t>
+  </si>
+  <si>
+    <t>doctor_consultations_per_capita</t>
+  </si>
+  <si>
+    <t>doctors_consultation_reference</t>
+  </si>
+  <si>
+    <t>mds_per_10000capita</t>
+  </si>
+  <si>
+    <t>mds_per_10000capita_reference</t>
+  </si>
+  <si>
+    <t>nurses_midwives_per_10000capita</t>
+  </si>
+  <si>
+    <t>nurses_midwives_per_10000capita_reference</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>proportion_at_risk</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>is_most_recent_with_data</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>primary_country</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>primary_sanctions_program</t>
+  </si>
+  <si>
+    <t>additional_sanctions_program</t>
+  </si>
+  <si>
+    <t>country name</t>
+  </si>
+  <si>
+    <t>The name of the country</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>any string</t>
+  </si>
+  <si>
+    <t>country ISO code</t>
+  </si>
+  <si>
+    <t>The ISO 3166 code of the country</t>
+  </si>
+  <si>
+    <t>For more information on ISO codes, see: https://www.iso.org/iso-3166-country-codes.html</t>
+  </si>
+  <si>
+    <t>WHO member state</t>
+  </si>
+  <si>
+    <t>Indicates if the country is a WHO member state</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>TRUE/FALSE</t>
+  </si>
+  <si>
+    <t>WHO region</t>
+  </si>
+  <si>
+    <t>The WHO region of the country</t>
+  </si>
+  <si>
+    <t>Proportion of total population that feel safe walking alone around the area they live after dark</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>any number</t>
+  </si>
+  <si>
+    <t>UN SDG data accessed June 14, 2023</t>
+  </si>
+  <si>
+    <t>UN SDG data accessed June 13, 2023</t>
+  </si>
+  <si>
+    <t>Proportion of male population that feel safe walking alone around the area they live after dark</t>
+  </si>
+  <si>
+    <t>Proportion of female population that feel safe walking alone around the area they live after dark</t>
+  </si>
+  <si>
+    <t>Data source, as identified by UN SDG dataset, for the three data elements above</t>
+  </si>
+  <si>
+    <t>Reference or data source</t>
+  </si>
+  <si>
+    <t>Proportion of total population subjected to robbery in the previous 12 months</t>
+  </si>
+  <si>
+    <t>Proportion of male population subjected to robbery in the previous 12 months</t>
+  </si>
+  <si>
+    <t>Proportion of female population subjected to robbery in the previous 12 months</t>
+  </si>
+  <si>
+    <t>Doctors consultations per capita</t>
+  </si>
+  <si>
+    <t>The number of consultations with a medical doctor, per capita, reported by the country in their most recent data report</t>
+  </si>
+  <si>
+    <t>Data source for the data element above</t>
+  </si>
+  <si>
+    <t>MDs per 10,000 capita</t>
+  </si>
+  <si>
+    <t>The number of MDs per 10,000 capita, reported by the country in their most recent data report</t>
+  </si>
+  <si>
+    <t>nurses and midwives per 10,000 capita</t>
+  </si>
+  <si>
+    <t>The number of nurses and midwives per 10,000 capita, reported by the country in their most recent data report</t>
+  </si>
+  <si>
+    <t>Proportion of local breeds classified as being at risk as a share of local breeds with known level of extinction risk (%)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>The year to which the data correspond</t>
+  </si>
+  <si>
+    <t>Proportion of breeds at risk</t>
+  </si>
+  <si>
+    <t>Is most recent data?</t>
+  </si>
+  <si>
+    <t>Indicates if the data are the most recently reported non-NULL data reported by the country in the dataset</t>
+  </si>
+  <si>
+    <t>Entity name</t>
+  </si>
+  <si>
+    <t>The name of the sanctioned entity</t>
+  </si>
+  <si>
+    <t>Entity address</t>
+  </si>
+  <si>
+    <t>The address of the sanctioned entity, if known</t>
+  </si>
+  <si>
+    <t>OFAC data accessed June 13, 2022 (https://sanctionssearch.ofac.treas.gov/)</t>
+  </si>
+  <si>
+    <t>Primary country</t>
+  </si>
+  <si>
+    <t>The primary country of the santioned entity</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>The type of entity</t>
+  </si>
+  <si>
+    <t>Primary sanctions program</t>
+  </si>
+  <si>
+    <t>Additional sanctions program</t>
+  </si>
+  <si>
+    <t>Any additional sanctions programs</t>
+  </si>
+  <si>
+    <t>The primary sanctions program</t>
+  </si>
+  <si>
+    <t>Initial data dictionary created</t>
+  </si>
+  <si>
+    <t>Intended for use as a teaching tool</t>
+  </si>
+  <si>
+    <t>Steph Eaneff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -579,12 +834,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -601,6 +850,47 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -666,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -688,26 +978,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,89 +1310,125 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V1003"/>
+  <dimension ref="A1:V1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.19921875" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="55.796875" customWidth="1"/>
-    <col min="4" max="4" width="59.796875" customWidth="1"/>
-    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="2" max="2" width="99.3984375" customWidth="1"/>
+    <col min="3" max="3" width="30.3984375" customWidth="1"/>
+    <col min="4" max="4" width="40.3984375" customWidth="1"/>
+    <col min="5" max="5" width="81.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="A2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="A3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:22" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>147</v>
-      </c>
+      <c r="D6" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
     </row>
     <row r="8" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1086,11 +1448,21 @@
       <c r="V8" s="2"/>
     </row>
     <row r="9" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2"/>
+      <c r="A9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1160,7 +1532,7 @@
     <row r="12" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="9"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1182,10 +1554,10 @@
       <c r="V12" s="2"/>
     </row>
     <row r="13" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1230,8 +1602,8 @@
       <c r="V14" s="2"/>
     </row>
     <row r="15" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1710,28 +2082,28 @@
       <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
@@ -2069,7 +2441,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2213,30 +2585,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-    </row>
+    <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3183,14 +3532,12 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3207,1235 +3554,1670 @@
   <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.19921875" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="35.3984375" customWidth="1"/>
-    <col min="4" max="4" width="59.796875" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="40.796875" customWidth="1"/>
-    <col min="7" max="7" width="40.19921875" customWidth="1"/>
+    <col min="1" max="1" width="25.796875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="55.796875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="40.19921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="59.796875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30" style="19" customWidth="1"/>
+    <col min="6" max="6" width="27.796875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="45.19921875" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="14.3984375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>147</v>
+      <c r="G3" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="A4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+      <c r="A5" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
     </row>
     <row r="6" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="A6" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
     </row>
     <row r="7" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="A7" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
     </row>
     <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
+      <c r="A8" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
+      <c r="A9" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
     </row>
     <row r="10" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="A10" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
     </row>
     <row r="11" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="A11" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
+      <c r="A12" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="A13" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
+      <c r="A14" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
     <row r="15" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
+      <c r="A15" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
+      <c r="A16" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="A17" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="A18" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
+      <c r="A19" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
     </row>
     <row r="20" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
+      <c r="A20" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
     </row>
     <row r="21" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="A21" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
     </row>
     <row r="22" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="A22" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
     </row>
     <row r="23" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="A23" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
     </row>
     <row r="24" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="A24" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
     </row>
     <row r="25" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
+      <c r="A25" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
     </row>
     <row r="26" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="A26" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
     </row>
     <row r="27" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="A27" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
     </row>
     <row r="28" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+      <c r="A28" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
     </row>
     <row r="29" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
+      <c r="A29" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
     </row>
     <row r="30" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
+      <c r="A30" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
     </row>
     <row r="31" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="A31" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
     </row>
     <row r="32" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
+      <c r="A32" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
     </row>
     <row r="33" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
+      <c r="A33" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
     </row>
     <row r="34" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="A34" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
     </row>
     <row r="35" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
     </row>
     <row r="36" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
     </row>
     <row r="37" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
     </row>
     <row r="38" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
     </row>
     <row r="39" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
     </row>
     <row r="40" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
     </row>
     <row r="41" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
     </row>
     <row r="42" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
     </row>
     <row r="43" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
     </row>
     <row r="44" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
     </row>
     <row r="45" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
     </row>
     <row r="46" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
     </row>
     <row r="47" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
     </row>
     <row r="48" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
     </row>
     <row r="49" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
     </row>
     <row r="50" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4449,941 +5231,941 @@
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
@@ -5402,7 +6184,7 @@
   <dimension ref="A1:S999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5419,29 +6201,29 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:19" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -7438,7 +8220,7 @@
   <dimension ref="A1:S999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7455,36 +8237,44 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:19" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="27">
+        <v>45091</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>

--- a/day3/demo/datasets/Day 3 Data Dictionary.xlsx
+++ b/day3/demo/datasets/Day 3 Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2023/day3/demo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EC08FD-76BF-8B42-93D8-5E7160AD7C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA135D-F226-2A41-A662-5DD86137C7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="760" windowWidth="29780" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="760" windowWidth="29780" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table information" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="245">
   <si>
     <t>Text</t>
   </si>
@@ -543,9 +543,6 @@
     <t>iso_3166</t>
   </si>
   <si>
-    <t>who_member_state</t>
-  </si>
-  <si>
     <t>who_region</t>
   </si>
   <si>
@@ -640,12 +637,6 @@
   </si>
   <si>
     <t>For more information on ISO codes, see: https://www.iso.org/iso-3166-country-codes.html</t>
-  </si>
-  <si>
-    <t>WHO member state</t>
-  </si>
-  <si>
-    <t>Indicates if the country is a WHO member state</t>
   </si>
   <si>
     <t>logical</t>
@@ -990,15 +981,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1029,11 +1011,20 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1312,7 +1303,7 @@
   </sheetPr>
   <dimension ref="A1:V1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
@@ -1326,26 +1317,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1354,13 +1345,13 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:22" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -3551,1674 +3542,1637 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V999"/>
+  <dimension ref="A1:V998"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.796875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="55.796875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="40.19921875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="59.796875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="30" style="19" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="45.19921875" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="14.3984375" style="19"/>
+    <col min="1" max="1" width="25.796875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="55.796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="40.19921875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="59.796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="30" style="16" customWidth="1"/>
+    <col min="6" max="6" width="27.796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="45.19921875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="14.3984375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:22" s="22" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+    </row>
+    <row r="5" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="D5" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+    </row>
+    <row r="6" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-    </row>
-    <row r="5" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+    </row>
+    <row r="7" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="B7" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+    </row>
+    <row r="9" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+    </row>
+    <row r="10" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-    </row>
-    <row r="6" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="G10" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G6" s="21" t="s">
+      <c r="B11" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-    </row>
-    <row r="7" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="B16" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+    </row>
+    <row r="17" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="G17" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+    </row>
+    <row r="18" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="G18" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-    </row>
-    <row r="9" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="B19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+    </row>
+    <row r="20" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="B20" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-    </row>
-    <row r="11" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="D20" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-    </row>
-    <row r="12" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-    </row>
-    <row r="13" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-    </row>
-    <row r="14" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-    </row>
-    <row r="15" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="16" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="21" t="s">
+      <c r="G20" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-    </row>
-    <row r="17" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-    </row>
-    <row r="18" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-    </row>
-    <row r="19" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-    </row>
-    <row r="20" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
     </row>
     <row r="21" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+    </row>
+    <row r="22" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+    </row>
+    <row r="23" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="C24" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+    </row>
+    <row r="25" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+    </row>
+    <row r="26" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-    </row>
-    <row r="22" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="G26" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+    </row>
+    <row r="27" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D22" s="20" t="s">
+      <c r="B27" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+    </row>
+    <row r="28" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="F28" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-    </row>
-    <row r="23" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="G28" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+    </row>
+    <row r="29" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-    </row>
-    <row r="24" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="21" t="s">
+      <c r="G29" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+    </row>
+    <row r="30" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-    </row>
-    <row r="25" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-    </row>
-    <row r="26" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-    </row>
-    <row r="27" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="21" t="s">
+      <c r="G30" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+    </row>
+    <row r="31" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-    </row>
-    <row r="28" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-    </row>
-    <row r="29" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="G31" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+    </row>
+    <row r="32" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="B32" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+    </row>
+    <row r="33" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-    </row>
-    <row r="30" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-    </row>
-    <row r="31" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-    </row>
-    <row r="32" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-    </row>
-    <row r="33" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
+      <c r="G33" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
     </row>
     <row r="34" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
     </row>
     <row r="35" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
     </row>
     <row r="36" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
     </row>
     <row r="37" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
     </row>
     <row r="38" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
     </row>
     <row r="39" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
     </row>
     <row r="40" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
     </row>
     <row r="41" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
     </row>
     <row r="42" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
     </row>
     <row r="43" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
     </row>
     <row r="44" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
     </row>
     <row r="45" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
     </row>
     <row r="46" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
     </row>
     <row r="47" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
     </row>
     <row r="48" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
     </row>
     <row r="49" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-    </row>
-    <row r="50" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+    </row>
+    <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-    </row>
-    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-    </row>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+    </row>
+    <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5231,941 +5185,940 @@
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
@@ -6201,13 +6154,13 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8237,13 +8190,13 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:19" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8263,17 +8216,17 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27">
+      <c r="A4" s="23">
         <v>45091</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>247</v>
+      <c r="B4" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>

--- a/day3/demo/datasets/Day 3 Data Dictionary.xlsx
+++ b/day3/demo/datasets/Day 3 Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepheaneff/Documents/work/GT/data-science-basics-2023/day3/demo/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BA135D-F226-2A41-A662-5DD86137C7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D928016-8EB1-3745-A1BD-D5DC41CC410E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="760" windowWidth="29780" windowHeight="16820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="760" windowWidth="29780" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table information" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="267">
   <si>
     <t>Text</t>
   </si>
@@ -489,9 +489,6 @@
     <t>This data dictionary is intended to document the dataset(s) accessible at https://github.com/seaneff/data-science-basics-2023/tree/main/day3/demo/datasets</t>
   </si>
   <si>
-    <t>The data dictionary was last updated on June 14, 2023</t>
-  </si>
-  <si>
     <t>countries</t>
   </si>
   <si>
@@ -772,13 +769,82 @@
   </si>
   <si>
     <t>Steph Eaneff</t>
+  </si>
+  <si>
+    <t>Added information on notional (fake) study data</t>
+  </si>
+  <si>
+    <t>Needed to generate notional (fake) study data for new plot types</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>A fake ("notional") dataset with summary information on an imaginary study</t>
+  </si>
+  <si>
+    <t>one row per group per week</t>
+  </si>
+  <si>
+    <t>Developed for use as a teaching tool, data are entirely fake</t>
+  </si>
+  <si>
+    <t>The data dictionary was last updated on August 16, 2023</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>average_score</t>
+  </si>
+  <si>
+    <t>ci_lower</t>
+  </si>
+  <si>
+    <t>ci_upper</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Average score</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Lower confidence interval (95%)</t>
+  </si>
+  <si>
+    <t>Upper confidence interval (95%)</t>
+  </si>
+  <si>
+    <t>The time of the observation</t>
+  </si>
+  <si>
+    <t>The group for which the average score was calculated</t>
+  </si>
+  <si>
+    <t>The average score of the group</t>
+  </si>
+  <si>
+    <t>The lower bound of a 95% confidence interval for the average score</t>
+  </si>
+  <si>
+    <t>The upper bound of a 95% confidence interval for the average score</t>
+  </si>
+  <si>
+    <t>Data are fake ("notional")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -868,12 +934,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri (Body)"/>
@@ -882,6 +942,30 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -947,7 +1031,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -984,31 +1068,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1025,6 +1100,21 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,8 +1393,8 @@
   </sheetPr>
   <dimension ref="A1:V1002"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1317,26 +1407,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
+      <c r="A3" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1345,17 +1435,17 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:22" ht="32.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>2</v>
@@ -1372,19 +1462,19 @@
     </row>
     <row r="7" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="E7" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1406,19 +1496,19 @@
     </row>
     <row r="8" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>159</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1440,19 +1530,19 @@
     </row>
     <row r="9" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>164</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>165</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1473,11 +1563,21 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="2"/>
+      <c r="A10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>249</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -3544,1633 +3644,1703 @@
   </sheetPr>
   <dimension ref="A1:V998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.796875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="55.796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="40.19921875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="59.796875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="45.19921875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="14.3984375" style="16"/>
+    <col min="1" max="1" width="25.796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="55.796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.19921875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="59.796875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="30" style="15" customWidth="1"/>
+    <col min="6" max="6" width="27.796875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="45.19921875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="14.3984375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:22" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:22" s="22" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:22" s="19" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+    </row>
+    <row r="5" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C5" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+    </row>
+    <row r="6" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+    </row>
+    <row r="9" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+    </row>
+    <row r="10" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+    </row>
+    <row r="11" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+    </row>
+    <row r="12" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+    </row>
+    <row r="13" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+    </row>
+    <row r="15" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+    </row>
+    <row r="17" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+    </row>
+    <row r="18" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+    </row>
+    <row r="19" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+    </row>
+    <row r="20" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+    </row>
+    <row r="21" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E21" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F21" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G21" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+    </row>
+    <row r="22" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="D22" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="B23" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="C23" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F23" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="G23" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+    </row>
+    <row r="27" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="F27" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+    </row>
+    <row r="28" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-    </row>
-    <row r="7" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="G28" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+    </row>
+    <row r="29" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+    </row>
+    <row r="30" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+    </row>
+    <row r="31" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+    </row>
+    <row r="32" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+    </row>
+    <row r="33" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+    </row>
+    <row r="34" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+    </row>
+    <row r="35" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
+    </row>
+    <row r="36" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="E36" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="F36" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+    </row>
+    <row r="37" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E37" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F37" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-    </row>
-    <row r="8" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="G37" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+    </row>
+    <row r="38" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F38" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-    </row>
-    <row r="11" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-    </row>
-    <row r="12" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-    </row>
-    <row r="14" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-    </row>
-    <row r="16" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-    </row>
-    <row r="17" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-    </row>
-    <row r="19" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-    </row>
-    <row r="22" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-    </row>
-    <row r="23" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-    </row>
-    <row r="24" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-    </row>
-    <row r="26" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-    </row>
-    <row r="27" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-    </row>
-    <row r="28" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-    </row>
-    <row r="29" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-    </row>
-    <row r="30" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-    </row>
-    <row r="31" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-    </row>
-    <row r="32" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-    </row>
-    <row r="33" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
-    </row>
-    <row r="34" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
-    </row>
-    <row r="35" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
-    </row>
-    <row r="36" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
-    </row>
-    <row r="37" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-    </row>
-    <row r="38" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
+      <c r="G38" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
     </row>
     <row r="42" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
     </row>
     <row r="46" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6154,13 +6324,13 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8173,7 +8343,7 @@
   <dimension ref="A1:S999"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8190,13 +8360,13 @@
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:19" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:19" ht="38" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
@@ -8216,17 +8386,17 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="20">
         <v>45091</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="25" t="s">
         <v>243</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -8245,10 +8415,18 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="20">
+        <v>45154</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>243</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
